--- a/mark59-datahunter-samples/mark59serverprofiles.xlsx
+++ b/mark59-datahunter-samples/mark59serverprofiles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="171">
   <si>
     <t>SERVER_PROFILE_NAME</t>
   </si>
@@ -108,7 +108,7 @@
     <t>DemoWIN-DataHunterSeleniumTrendsLoad</t>
   </si>
   <si>
-    <t>NewRelicTestProfile</t>
+    <t>NewRelicSampleProfile</t>
   </si>
   <si>
     <t>GROOVY_SCRIPT</t>
@@ -117,7 +117,13 @@
     <t>supplied sample New Relic API groovy script</t>
   </si>
   <si>
-    <t>{"proxyPort":"","newRelicXapiKey":"","proxyServer":"","newRelicApiAppId":""}</t>
+    <t>{"proxyPort":"proxyPort","newRelicXapiKey":"newRelicXapiKey","proxyServer":"proxyServer","newRelicApiAppId":"newRelicApiAppId"}</t>
+  </si>
+  <si>
+    <t>NewRelicSampleProfileHARVEST</t>
+  </si>
+  <si>
+    <t>{"proxyPort":"","newRelicXapiKey":"NRAK-OH3A9Z7XLA4009IUOFFLRG6RXTK","proxyServer":"","newRelicApiAppId":"1088219095"}</t>
   </si>
   <si>
     <t>SimpleScriptSampleRunner</t>
@@ -418,41 +424,35 @@
     <t>sysctl -n hw.memsize</t>
   </si>
   <si>
-    <t>import java.net.HttpURLConnection;
-import java.net.InetSocketAddress;
+    <t>import java.net.InetSocketAddress;
 import java.net.Proxy;
-import java.net.URL;
 import java.time.ZoneOffset;
 import java.time.ZonedDateTime;
 import java.time.format.DateTimeFormatter;
 import java.util.ArrayList;
 import java.util.List;
-import java.util.Scanner;
 import org.apache.commons.lang3.StringUtils;
 import org.json.JSONArray;
 import org.json.JSONObject;
 import com.mark59.metrics.pojos.ParsedMetric;
 import com.mark59.metrics.pojos.ScriptResponse;
-ScriptResponse scriptResponse = new ScriptResponse(); 
+import okhttp3.Headers;
+import okhttp3.OkHttpClient;
+import okhttp3.Request;
+import okhttp3.Response;
+String newRelicApiUrl = "https://api.newrelic.com/v2/applications/";
+String url = newRelicApiUrl + newRelicApiAppId + "/hosts.json";
+ScriptResponse scriptResponse = new ScriptResponse();
 List&lt;ParsedMetric&gt; parsedMetrics = new ArrayList&lt;ParsedMetric&gt;();
-String newRelicApiUrl = "https://api.newrelic.com/v2/applications/";
-String url = newRelicApiUrl + newRelicApiAppId + "/instances.json"; 
+Request request; Response response = null; JSONObject jsonResponse = null;
+Proxy proxy = StringUtils.isNotBlank(proxyServer + proxyPort) ? new Proxy(Proxy.Type.HTTP, new InetSocketAddress(proxyServer , new Integer(proxyPort))) : null;
+OkHttpClient client = proxy != null ? new OkHttpClient.Builder().proxy(proxy).build() : new OkHttpClient();
+Headers headers = new Headers.Builder().add("X-Api-Key", newRelicXapiKey).add("Content-Type", "application/json").build();
 String debugJsonResponses =  "running profile " + serverProfile.serverProfileName + ", init req : " + url ;
-JSONObject jsonResponse = null;
-Proxy proxy = StringUtils.isNotBlank(proxyServer + proxyPort) ? new Proxy(Proxy.Type.HTTP, new InetSocketAddress(proxyServer , new Integer(proxyPort))) : null;
 try {
-	HttpURLConnection conn = proxy != null ? (HttpURLConnection)new URL(url).openConnection(proxy) : (HttpURLConnection)new URL(url).openConnection();
-	conn.setRequestMethod("GET");
-	conn.addRequestProperty("X-Api-Key", newRelicXapiKey);
-	conn.setRequestProperty("Content-Type", "application/json");
-	conn.setRequestProperty("Accept", "application/json");
-	if (conn.getResponseCode() != HttpURLConnection.HTTP_OK) {
-		throw new Exception("rc:" + conn.getResponseCode() + "from " + url);
-	}
-	String isStr = null;
-	Scanner s = new Scanner(conn.getInputStream());
-	isStr = s.hasNext() ? s.next() : "";
-	jsonResponse = new JSONObject(isStr);
+	request = new Request.Builder().url(url).headers(headers).get().build();
+	response = client.newCall(request).execute();
+	jsonResponse = new JSONObject(response.body().string());
 	debugJsonResponses =  debugJsonResponses + "&lt;br&gt;init res.: " + jsonResponse.toString();
 	ZonedDateTime utcTimeNow = ZonedDateTime.now(ZoneOffset.UTC);
 	String toHour 	= String.format("%02d", utcTimeNow.getHour());
@@ -461,37 +461,28 @@
 	String fromHour	= String.format("%02d", utcMinus1Min.getHour());
 	String fromMinute = String.format("%02d", utcMinus1Min.getMinute());
 	String fromDate = utcMinus1Min.format(DateTimeFormatter.ofPattern("yyyy-MM-dd"));
-	String toDate 	= utcTimeNow.format(DateTimeFormatter.ofPattern("yyyy-MM-dd"));		
+	String toDate 	= utcTimeNow.format(DateTimeFormatter.ofPattern("yyyy-MM-dd"));
 	String urlDateRangeParmStr = "&amp;from=" + fromDate + "T" + fromHour + "%3A" + fromMinute + "%3A00%2B00%3A00" + "&amp;to=" + toDate + "T" + toHour + "%3A" + toMinute + "%3A00%2B00%3A00";
-	JSONArray application_instances = jsonResponse.getJSONArray("application_instances");
-	for (int i = 0; i &lt; application_instances.length(); i++) {
-		JSONObject application_instance = (JSONObject) application_instances.get(i);
-		Integer instanceId = (Integer) application_instance.get("id");
-		String instanceName = ((String)application_instance.get("application_name")).replace(":","_");
-		url = newRelicApiUrl + newRelicApiAppId  + "/instances/" + instanceId + "/metrics/data.json?names%5B%5D=Memory%2FHeap%2FFree&amp;names%5B%5D=CPU%2FUser%2FUtilization" + urlDateRangeParmStr;
-		debugJsonResponses =  debugJsonResponses + "&lt;br&gt;&lt;br&gt;req." + i + ": " + url ; 
-		conn = proxy != null ? (HttpURLConnection)new URL(url).openConnection(proxy) : (HttpURLConnection)new URL(url).openConnection();
-		conn.setRequestMethod("GET");
-		conn. addRequestProperty("X-Api-Key", newRelicXapiKey);
-		conn.setRequestProperty("Content-Type", "application/json");
-		conn.setRequestProperty("Accept", "application/json");
-		if (conn.getResponseCode() != HttpURLConnection.HTTP_OK) {
-			throw new Exception("rc:" + conn.getResponseCode() + "from " + url);
-		}
-		isStr = null;
-		s = new Scanner(conn.getInputStream());
-		isStr = s.hasNext() ? s.next() : "";
-		jsonResponse = new JSONObject(isStr);
-		debugJsonResponses =  debugJsonResponses + "&lt;br&gt;res." + i + ": " + jsonResponse.toString(); 
-		Number totalUusedMbMemory = -1.0;
-		totalUusedMbMemory =  (Number)((JSONObject)((JSONObject)jsonResponse.getJSONObject("metric_data").getJSONArray("metrics").get(0)).getJSONArray("timeslices").get(0)).getJSONObject("values").get("total_used_mb") ;
-		parsedMetrics.add(new ParsedMetric("MEMORY_" + newRelicApiAppId + "_" + instanceId + "_" + instanceName, totalUusedMbMemory,  "MEMORY"));
-		Number percentCpuUserUtilization = -1.0;
-		percentCpuUserUtilization = (Number)((JSONObject)((JSONObject)jsonResponse.getJSONObject("metric_data").getJSONArray("metrics").get(1)).getJSONArray("timeslices").get(0)).getJSONObject("values").get("percent");
-		parsedMetrics.add(new ParsedMetric("CPU_" + newRelicApiAppId + "_" + instanceId + "_" + instanceName, percentCpuUserUtilization, "CPU_UTIL"));
+	JSONArray application_hosts = jsonResponse.getJSONArray("application_hosts");
+	for (int i = 0; i &lt; application_hosts.length(); i++) {
+		JSONObject application_host = (JSONObject) application_hosts.get(i);
+		Integer hostId = (Integer) application_host.get("id");
+		String hostName = ((String)application_host.get("host")).replace(":","_");
+		url = newRelicApiUrl + newRelicApiAppId  + "/hosts/" + hostId + "/metrics/data.json?names%5B%5D=Memory/Heap/Used&amp;names%5B%5D=CPU/User Time&amp;names%5B%5D=Memory/Physical" + urlDateRangeParmStr;
+		debugJsonResponses =  debugJsonResponses + "&lt;br&gt;&lt;br&gt;req." + i + ": " + url ;
+		request = new Request.Builder().url(url).headers(headers).get().build();
+		response = client.newCall(request).execute();
+		jsonResponse = new JSONObject(response.body().string());
+		debugJsonResponses =  debugJsonResponses + "&lt;br&gt;res." + i + ": " + jsonResponse.toString();
+		Number memoryMetric = -1.0;
+		memoryMetric =  (Number)((JSONObject)((JSONObject)jsonResponse.getJSONObject("metric_data").getJSONArray("metrics").get(0)).getJSONArray("timeslices").get(0)).getJSONObject("values").get("used_mb_by_host") ;
+		parsedMetrics.add(new ParsedMetric("MEMORY_HEAP_USED_MB_" + hostName, memoryMetric, "MEMORY"));
+		Number cpuMetric = -1.0;
+		cpuMetric = (Number)((JSONObject)((JSONObject)jsonResponse.getJSONObject("metric_data").getJSONArray("metrics").get(1)).getJSONArray("timeslices").get(0)).getJSONObject("values").get("percent");
+		parsedMetrics.add(new ParsedMetric("CPU_USER_TIME_%_" + hostName, cpuMetric, "CPU_UTIL"));
 	}
 } catch (Exception e) {
-	debugJsonResponses =  debugJsonResponses + "&lt;br&gt;\n ERROR :  Exception last url: " + url + ", response of  : " + jsonResponse + ", message: "+ e.getMessage(); 
+	debugJsonResponses =  debugJsonResponses + "&lt;br&gt;\n ERROR :  Exception last url: " + url + ", response of  : " + jsonResponse + ", message: "+ e.getMessage();
 }
 scriptResponse.setCommandLog(debugJsonResponses);
 scriptResponse.setParsedMetrics(parsedMetrics);
@@ -899,7 +890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -915,7 +906,7 @@
     <col min="8" max="8" width="19.5390625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="23.23828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="103.01953125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.5625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1304,50 +1295,36 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
         <v>35</v>
-      </c>
-      <c r="K12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1356,7 +1333,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -1374,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K14" t="s">
         <v>17</v>
@@ -1382,7 +1359,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1391,7 +1368,7 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -1409,7 +1386,7 @@
         <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="K15" t="s">
         <v>17</v>
@@ -1417,7 +1394,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1426,7 +1403,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -1444,7 +1421,7 @@
         <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K16" t="s">
         <v>17</v>
@@ -1452,16 +1429,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -1473,13 +1450,13 @@
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="K17" t="s">
         <v>17</v>
@@ -1487,7 +1464,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1496,7 +1473,7 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -1514,7 +1491,7 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
@@ -1522,34 +1499,34 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="K19" t="s">
         <v>17</v>
@@ -1557,22 +1534,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" t="s">
-        <v>48</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -1595,7 +1572,7 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>52</v>
@@ -1604,24 +1581,59 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
       </c>
       <c r="K21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1632,7 +1644,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1647,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -1655,7 +1667,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1663,7 +1675,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1671,7 +1683,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -1679,7 +1691,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -1687,7 +1699,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1695,7 +1707,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -1703,7 +1715,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1711,7 +1723,7 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1719,7 +1731,7 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1727,7 +1739,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1735,151 +1747,151 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
@@ -1887,23 +1899,31 @@
         <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1929,442 +1949,442 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s" s="1">
         <v>9</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
         <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
         <v>84</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
         <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
         <v>82</v>
-      </c>
-      <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
         <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
         <v>82</v>
-      </c>
-      <c r="E9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" t="s">
         <v>82</v>
-      </c>
-      <c r="E10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2386,210 +2406,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2615,302 +2635,302 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s" s="1">
         <v>9</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>136</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
         <v>140</v>
       </c>
-      <c r="D6" t="s">
-        <v>138</v>
-      </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" t="s">
         <v>152</v>
       </c>
-      <c r="E9" t="s">
-        <v>150</v>
-      </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>160</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/mark59-datahunter-samples/mark59serverprofiles.xlsx
+++ b/mark59-datahunter-samples/mark59serverprofiles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="169">
   <si>
     <t>SERVER_PROFILE_NAME</t>
   </si>
@@ -118,12 +118,6 @@
   </si>
   <si>
     <t>{"proxyPort":"proxyPort","newRelicXapiKey":"newRelicXapiKey","proxyServer":"proxyServer","newRelicApiAppId":"newRelicApiAppId"}</t>
-  </si>
-  <si>
-    <t>NewRelicSampleProfileHARVEST</t>
-  </si>
-  <si>
-    <t>{"proxyPort":"","newRelicXapiKey":"NRAK-OH3A9Z7XLA4009IUOFFLRG6RXTK","proxyServer":"","newRelicApiAppId":"1088219095"}</t>
   </si>
   <si>
     <t>SimpleScriptSampleRunner</t>
@@ -890,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1295,36 +1289,50 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1333,7 +1341,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -1351,7 +1359,7 @@
         <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
         <v>17</v>
@@ -1359,7 +1367,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1368,7 +1376,7 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -1386,7 +1394,7 @@
         <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K15" t="s">
         <v>17</v>
@@ -1394,7 +1402,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1403,7 +1411,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -1421,7 +1429,7 @@
         <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K16" t="s">
         <v>17</v>
@@ -1429,16 +1437,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -1450,13 +1458,13 @@
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K17" t="s">
         <v>17</v>
@@ -1464,7 +1472,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1473,7 +1481,7 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -1491,7 +1499,7 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
@@ -1499,34 +1507,34 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K19" t="s">
         <v>17</v>
@@ -1534,22 +1542,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
         <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" t="s">
-        <v>50</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -1572,7 +1580,7 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>52</v>
@@ -1581,59 +1589,24 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1644,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1659,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -1667,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1675,7 +1648,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -1683,7 +1656,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -1691,7 +1664,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1699,7 +1672,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -1707,7 +1680,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -1715,7 +1688,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1723,7 +1696,7 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -1731,7 +1704,7 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -1739,7 +1712,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -1747,151 +1720,151 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
@@ -1899,31 +1872,23 @@
         <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1949,442 +1914,442 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s" s="1">
         <v>9</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
         <v>79</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>80</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
         <v>80</v>
-      </c>
-      <c r="E13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
         <v>80</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>80</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
         <v>80</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
         <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
       <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
         <v>105</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
         <v>80</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
         <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
         <v>80</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
         <v>80</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2406,210 +2371,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2635,302 +2600,302 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s" s="1">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>126</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>127</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>128</v>
       </c>
       <c r="E1" t="s" s="1">
         <v>9</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
         <v>130</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>134</v>
-      </c>
-      <c r="D3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>139</v>
-      </c>
-      <c r="D5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" t="s">
         <v>144</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>145</v>
-      </c>
-      <c r="E7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
         <v>148</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>149</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>150</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>151</v>
-      </c>
-      <c r="E8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
         <v>155</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>158</v>
-      </c>
-      <c r="D11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" t="s">
         <v>165</v>
-      </c>
-      <c r="E14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F14" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" t="s">
         <v>168</v>
-      </c>
-      <c r="E15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/mark59-datahunter-samples/mark59serverprofiles.xlsx
+++ b/mark59-datahunter-samples/mark59serverprofiles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="214">
   <si>
     <t>SERVER_PROFILE_NAME</t>
   </si>
@@ -84,6 +84,9 @@
     <t>Loads Trend Analysis (H2 database).  See:&lt;br&gt;http://localhost:8083/mark59-trends/trending?reqApp=DataHunter</t>
   </si>
   <si>
+    <t>{"DATABASE":"h2H2"}</t>
+  </si>
+  <si>
     <t>DemoMAC-DataHunterSeleniumDeployAndExecute</t>
   </si>
   <si>
@@ -96,61 +99,82 @@
     <t>DemoWIN-DataHunterSeleniumDeployAndExecute</t>
   </si>
   <si>
+    <t>POWERSHELL_WINDOWS</t>
+  </si>
+  <si>
+    <t>DemoWIN-DataHunterSeleniumGenJmeterReport</t>
+  </si>
+  <si>
+    <t>Hint - in browser open this URL and go to each index.html: file:///C:/Mark59_Runs/Jmeter_Reports/DataHunter/</t>
+  </si>
+  <si>
+    <t>DemoWIN-DataHunterSeleniumTrendsLoad</t>
+  </si>
+  <si>
+    <t>Loads Trend Analysis (H2 database). See: &lt;br&gt;http://localhost:8083/mark59-trends/trending?reqApp=DataHunter</t>
+  </si>
+  <si>
+    <t>{"DATABASE":"H2"}</t>
+  </si>
+  <si>
+    <t>NewRelicSampleProfile</t>
+  </si>
+  <si>
+    <t>GROOVY_SCRIPT</t>
+  </si>
+  <si>
+    <t>supplied sample New Relic API groovy script</t>
+  </si>
+  <si>
+    <t>{"proxyPort":"proxyPort","newRelicXapiKey":"newRelicXapiKey","proxyServer":"proxyServer","newRelicApiAppId":"newRelicApiAppId","parm1":"extraUnusedParm"}</t>
+  </si>
+  <si>
+    <t>SimpleScriptSampleRunner</t>
+  </si>
+  <si>
+    <t>runs a supplied, basic groovy script sample</t>
+  </si>
+  <si>
+    <t>{"parm4":"uused","parm1":"44","parm2":"55.7","parm3":"444"}</t>
+  </si>
+  <si>
+    <t>localhost_LINUX</t>
+  </si>
+  <si>
+    <t>localhost_MAC</t>
+  </si>
+  <si>
+    <t>localhost_MAC_HOSTID</t>
+  </si>
+  <si>
+    <t>HOSTID</t>
+  </si>
+  <si>
+    <t>HOSTID will be subed &lt;br&gt; with computername</t>
+  </si>
+  <si>
+    <t>localhost_WINDOWS</t>
+  </si>
+  <si>
+    <t>{"SECURE_KEY_ARRAY":"","SECURE_STRING_TXT":""}</t>
+  </si>
+  <si>
+    <t>localhost_WINDOWS_HOSTID</t>
+  </si>
+  <si>
+    <t>'HOSTID' will be subed with computername</t>
+  </si>
+  <si>
+    <t>localhost_WMIC_WINDOWS</t>
+  </si>
+  <si>
     <t>WMIC_WINDOWS</t>
   </si>
   <si>
-    <t>DemoWIN-DataHunterSeleniumGenJmeterReport</t>
-  </si>
-  <si>
-    <t>Hint - in browser open this URL and go to each index.html:  file:///C:/Mark59_Runs/Jmeter_Reports/DataHunter/</t>
-  </si>
-  <si>
-    <t>DemoWIN-DataHunterSeleniumTrendsLoad</t>
-  </si>
-  <si>
-    <t>NewRelicSampleProfile</t>
-  </si>
-  <si>
-    <t>GROOVY_SCRIPT</t>
-  </si>
-  <si>
-    <t>supplied sample New Relic API groovy script</t>
-  </si>
-  <si>
-    <t>{"proxyPort":"proxyPort","newRelicXapiKey":"newRelicXapiKey","proxyServer":"proxyServer","newRelicApiAppId":"newRelicApiAppId"}</t>
-  </si>
-  <si>
-    <t>SimpleScriptSampleRunner</t>
-  </si>
-  <si>
-    <t>runs a supplied, basic groovy script sample</t>
-  </si>
-  <si>
-    <t>{"parm1":"11","parm2":"55.7","parm3":"333"}</t>
-  </si>
-  <si>
-    <t>localhost_LINUX</t>
-  </si>
-  <si>
-    <t>localhost_LINUX_HOSTID</t>
-  </si>
-  <si>
-    <t>HOSTID</t>
-  </si>
-  <si>
-    <t>HOSTID will be subed &lt;br&gt; with computername</t>
-  </si>
-  <si>
-    <t>localhost_MAC</t>
-  </si>
-  <si>
-    <t>localhost_MAC_HOSTID</t>
-  </si>
-  <si>
-    <t>localhost_WINDOWS</t>
-  </si>
-  <si>
-    <t>localhost_WINDOWS_HOSTID</t>
+    <t>localhost_WMIC_WINDOWS_HOSTID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'HOSTID' will be subed &lt;br&gt; with computername  </t>
   </si>
   <si>
     <t>remoteLinuxServer</t>
@@ -165,18 +189,54 @@
     <t>encryptMe</t>
   </si>
   <si>
+    <t>remoteLinuxServerViaSSH</t>
+  </si>
+  <si>
+    <t>no entry for password</t>
+  </si>
+  <si>
+    <t>{"SSH_PASSPHRASE":"remove this param or leave blank if there is no passphrase","SSH_IDENTITY":"full filename of the private key.  Note the key needs to be in Classic OpenSSH format (-m PEM). See overview. "}</t>
+  </si>
+  <si>
     <t>remoteUnixVM</t>
   </si>
   <si>
     <t>UnixVMName</t>
   </si>
   <si>
-    <t>remoteWinServer</t>
+    <t>remoteWinServer_WMIC</t>
   </si>
   <si>
     <t>WinServerName</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>remoteWinServer_pwd</t>
+  </si>
+  <si>
+    <t>win connect via user pwd</t>
+  </si>
+  <si>
+    <t>remoteWinServer_secureStr</t>
+  </si>
+  <si>
+    <t>win connect via secure string</t>
+  </si>
+  <si>
+    <t>{"SECURE_KEY_ARRAY":"","SECURE_STRING_TXT":"secure-string-goes-here"}</t>
+  </si>
+  <si>
+    <t>remoteWinServer_secureStr_key</t>
+  </si>
+  <si>
+    <t>win connect via secure string using user defined key &lt;br&gt;(a sample key shown)</t>
+  </si>
+  <si>
+    <t>{"SECURE_KEY_ARRAY":"101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116","SECURE_STRING_TXT":"secure-string-built-using-key-goes-here"}</t>
+  </si>
+  <si>
     <t>COMMAND_NAME</t>
   </si>
   <si>
@@ -225,6 +285,15 @@
     <t>MAC_MEMSIZE</t>
   </si>
   <si>
+    <t>WIN_Core</t>
+  </si>
+  <si>
+    <t>WIN_DiskSpace_C</t>
+  </si>
+  <si>
+    <t>WIN_PerfRawData</t>
+  </si>
+  <si>
     <t>FreePhysicalMemory</t>
   </si>
   <si>
@@ -234,6 +303,9 @@
     <t>WinCpuCmd</t>
   </si>
   <si>
+    <t>LINUX_free_m_1_1_ViaSSH</t>
+  </si>
+  <si>
     <t>UNIX_Memory_Script</t>
   </si>
   <si>
@@ -249,30 +321,7 @@
     <t>PARAM_NAMES</t>
   </si>
   <si>
-    <t xml:space="preserve">process call create 'cmd.exe /c 
- echo Running Directly From Server Metrics Web (cmd DataHunterSeleniumDeployAndExecute) &amp; 
- echo  METRICS_BASE_DIR: %METRICS_BASE_DIR% &amp; 
- cd /D %METRICS_BASE_DIR% &amp;  
- cd ..\mark59-datahunter-samples &amp; 
- DEL C:\apache-jmeter\bin\mark59.properties &amp; COPY .\mark59.properties C:\apache-jmeter\bin &amp;
- DEL C:\apache-jmeter\bin\chromedriver.exe  &amp; COPY .\chromedriver.exe  C:\apache-jmeter\bin &amp;
- DEL C:\apache-jmeter\lib\ext\mark59-metrics-api.jar &amp;
- COPY ..\mark59-metrics-api\target\mark59-metrics-api.jar  C:\apache-jmeter\lib\ext &amp; 
- DEL C:\apache-jmeter\lib\ext\mark59-datahunter-samples.jar &amp; 
- COPY .\target\mark59-datahunter-samples.jar  C:\apache-jmeter\lib\ext &amp;
- RMDIR /S /Q C:\apache-jmeter\lib\ext\mark59-datahunter-samples-dependencies &amp;
- MKDIR C:\apache-jmeter\lib\ext\mark59-datahunter-samples-dependencies &amp;
- COPY .\target\mark59-datahunter-samples-dependencies  C:\apache-jmeter\lib\ext\mark59-datahunter-samples-dependencies &amp;
- mkdir C:\Mark59_Runs &amp;
- mkdir C:\Mark59_Runs\Jmeter_Results &amp;
- mkdir C:\Mark59_Runs\Jmeter_Results\DataHunter &amp;
- set path=%path%;C:\Windows\System32;C:\windows\system32\wbem &amp; 
- cd /D C:\apache-jmeter\bin &amp;
- echo Starting JMeter DataHunter test ... &amp;  
- jmeter -n -X -f -t %METRICS_BASE_DIR%\..\mark59-datahunter-samples\test-plans\DataHunterSeleniumTestPlan.jmx -l C:\Mark59_Runs\Jmeter_Results\DataHunter\DataHunterTestResults.csv -JForceTxnFailPercent=0 -JDataHunterUrl=http://localhost:8081/mark59-datahunter -JStartCdpListeners=false &amp;
- PAUSE
-'
-</t>
+    <t>Start-Process -FilePath '${METRICS_BASE_DIR}\..\bin\TestRunWIN-DataHunter-Selenium-DeployAndExecute.bat'</t>
   </si>
   <si>
     <t>N</t>
@@ -297,7 +346,7 @@
     mkdir -p ~/Mark59_Runs/Jmeter_Results/DataHunter &amp;&amp;
     rm -rf ~/apache-jmeter/lib/ext/mark59-datahunter-samples-dependencies &amp;&amp;
     cp -r ./target/mark59-datahunter-samples-dependencies ~/apache-jmeter/lib/ext/mark59-datahunter-samples-dependencies &amp;&amp;
-    gnome-terminal -- sh -c "cd ~/apache-jmeter/bin; ~/apache-jmeter/bin/jmeter -n -X -f -t $DH_TEST_SAMPLES_DIR/test-plans/DataHunterSeleniumTestPlan.jmx -l ~/Mark59_Runs/Jmeter_Results/DataHunter/DataHunterTestResults.csv -JForceTxnFailPercent=0 -JStartCdpListeners=false; exec bash"
+    gnome-terminal -- sh -c "~/apache-jmeter/bin/jmeter -n -X -f  -t $DH_TEST_SAMPLES_DIR/test-plans/DataHunterSeleniumTestPlan.jmx -l ~/Mark59_Runs/Jmeter_Results/DataHunter/DataHunterTestResults.csv -JForceTxnFailPercent=0 -JStartCdpListeners=false; exec bash"
 } || { # catch 
     echo Deploy was unsuccessful! 
 }</t>
@@ -330,10 +379,8 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">process call create 'cmd.exe /c 
- cd /D %METRICS_BASE_DIR% &amp; 
- cd../mark59-results-splitter &amp; 
- CreateDataHunterJmeterReports.bat'
+    <t xml:space="preserve">cd -Path ${METRICS_BASE_DIR}\..\mark59-results-splitter;
+Start-Process -FilePath '.\CreateDataHunterJmeterReports.bat'
 </t>
   </si>
   <si>
@@ -362,17 +409,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">process call create 'cmd.exe /c 
- echo Load DataHunter Test Results into  Mark59 Trends Analysis h2 database. &amp; 
- cd /D  %METRICS_BASE_DIR% &amp; 
- cd ../mark59-trends-load &amp;  
- java -jar ./target/mark59-trends-load.jar -a DataHunter -i C:\Mark59_Runs\Jmeter_Results\DataHunter -d h2 &amp;
- PAUSE
-'
+    <t xml:space="preserve">cd -Path ${METRICS_BASE_DIR}\..\bin;
+Start-Process -FilePath '.\TestRunWIN-DataHunter-Selenium-TrendsLoad.bat' -ArgumentList '${DATABASE}'
 </t>
   </si>
   <si>
-    <t xml:space="preserve">echo This script runs mark59-trends-load,to load results from a DataHunter test run into the Metrics Trend Analysis Graph.
+    <t>["DATABASE"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo This script runs mark59-trends-load,to load results from a DataHunter test run into the Metrics Trends Graph.
 echo starting from $PWD;
 {   # try  
     cd ../mark59-trends-load/target &amp;&amp;
@@ -407,6 +452,9 @@
   </si>
   <si>
     <t>linux memory</t>
+  </si>
+  <si>
+    <t>["SSH_IDENTITY","SSH_PASSPHRASE"]</t>
   </si>
   <si>
     <t>mpstat 1 1</t>
@@ -486,7 +534,7 @@
     <t>NewRelic Supplied Sample</t>
   </si>
   <si>
-    <t>["newRelicApiAppId","newRelicXapiKey","proxyServer","proxyPort"]</t>
+    <t>["newRelicApiAppId","newRelicXapiKey","parm1","proxyPort","proxyServer"]</t>
   </si>
   <si>
     <t>import java.util.ArrayList;
@@ -494,7 +542,7 @@
 import com.mark59.metrics.data.beans.ServerProfile;
 import com.mark59.metrics.pojos.ParsedMetric;
 import com.mark59.metrics.pojos.ScriptResponse;
-ScriptResponse scriptResponse = new ScriptResponse();
+ScriptResponse scriptResponse = new ScriptResponse(); 
 List&lt;ParsedMetric&gt; parsedMetrics = new ArrayList&lt;ParsedMetric&gt;();
 String commandLogDebug = "running script " + serverProfile.getServerProfileName() + "&lt;br&gt;" +  serverProfile.getComment();
 commandLogDebug += "&lt;br&gt;passed parms : parm1=" + parm1 + ", parm2=" + parm2 + ", parm3=" + parm3
@@ -503,14 +551,15 @@
 parsedMetrics.add(new ParsedMetric("a_cpu_util_txn", 33.3,  "CPU_UTIL"));
 parsedMetrics.add(new ParsedMetric("some_datapoint", 66.6,  "DATAPOINT"));
 scriptResponse.setCommandLog(commandLogDebug);
-scriptResponse.setParsedMetrics(parsedMetrics);
+/// scriptResponse.setParsedMetrics(parsedMetrics);
+scriptResponse.parsedMetrics=parsedMetrics;
 return scriptResponse;</t>
   </si>
   <si>
     <t>supplied basic groovy script sample</t>
   </si>
   <si>
-    <t>["parm1","parm2","parm3"]</t>
+    <t>["parm1","parm2","parm3","parm4"]</t>
   </si>
   <si>
     <t>vmstat=$(vmstat -v); 
@@ -533,6 +582,95 @@
     <t>lparstat 5 1</t>
   </si>
   <si>
+    <t xml:space="preserve">if ('${PROFILE_SERVER}' -eq 'localhost'){
+    Write-Output \"get localhost metric \";
+    $ComputerCPU = Get-WmiObject -Class win32_processor -ErrorAction Stop;
+    $ComputerMemory = Get-WmiObject -Class win32_operatingsystem -ErrorAction Stop;
+} elseif ((![string]::IsNullOrEmpty('${SECURE_STRING_TXT}')) -and ([string]::IsNullOrEmpty('${SECURE_KEY_ARRAY}'))){
+    Write-Output \"  cpu using secure string \"; 
+    &lt;# To get the SECURE_STRING_TXT parameter value to store (no key):
+        $secureString = ConvertTo-SecureString 'plain-text-password' -AsPlainText -Force
+        $secureStringTxt = Convertfrom-SecureString $secureString 
+    #&gt;
+    $securePwd = '${SECURE_STRING_TXT}' | ConvertTo-SecureString; 
+    $credential = New-Object System.Management.Automation.PSCredential ('${PROFILE_USERNAME}', $securePwd);
+} elseif ((![string]::IsNullOrEmpty('${SECURE_STRING_TXT}')) -and (![string]::IsNullOrEmpty('${SECURE_KEY_ARRAY}'))){
+    Write-Output \"get remote server metric using using secure string with key \";
+    &lt;# To get the SECURE_STRING_TXT parameter value to store (using key), 
+        $secureString = ConvertTo-SecureString 'plain-text-password' -AsPlainText -Force
+        [Byte[]] $key = ( your-comma-delimited-list-of-key-values-between-0-255 )
+        $secureStringTxt = Convertfrom-SecureString $secureString -key $key
+    #&gt;
+    [Byte[]] $key = @(${SECURE_KEY_ARRAY}); 
+    $securePwd = '${SECURE_STRING_TXT}' | ConvertTo-SecureString -Key $key;
+    $credential = New-Object System.Management.Automation.PSCredential ('${PROFILE_USERNAME}', $securePwd);
+} else {
+    Write-Output \"get remote server metric using profile username and password \";
+    $password = ConvertTo-SecureString '${PROFILE_PASSWORD}' -AsPlainText -Force; 
+    $credential = New-Object System.Management.Automation.PSCredential ('${PROFILE_USERNAME}', $password);
+}
+if ('${PROFILE_SERVER}' -ne 'localhost'){ 
+    $ComputerCPU = Get-WmiObject -Credential $credential -ComputerName ${PROFILE_SERVER} -Class win32_processor -ErrorAction Stop;
+    $ComputerMemory = Get-WmiObject -Credential $credential -ComputerName ${PROFILE_SERVER} -Class win32_operatingsystem -ErrorAction Stop;
+}
+$CPUUtil =  [math]::round(($ComputerCPU | Measure-Object -Property LoadPercentage -Average | Select-Object Average).Average);
+$FreePhysicalMemory= [math]::truncate($ComputerMemory.FreePhysicalMemory / 1MB);
+$FreeVirtualMemory = [math]::truncate($ComputerMemory.FreeVirtualMemory / 1MB);
+Write-Host " CPU["$CPUUtil"] FreePhysicalMemory["$FreePhysicalMemory"] FreeVirtualMemory["$FreeVirtualMemory"]";
+</t>
+  </si>
+  <si>
+    <t>you should &lt;# comment #&gt; the debug Write-Output statements out to run in a real test :)</t>
+  </si>
+  <si>
+    <t>["SECURE_KEY_ARRAY","SECURE_STRING_TXT"]</t>
+  </si>
+  <si>
+    <t>if ('${PROFILE_SERVER}' -eq 'localhost'){
+    $Drive =  Get-WMIObject Win32_LogicalDisk -Filter \"DeviceID='C:'\" ;
+} elseif ((![string]::IsNullOrEmpty('${SECURE_STRING_TXT}')) -and ([string]::IsNullOrEmpty('${SECURE_KEY_ARRAY}'))){
+    $securePwd = '${SECURE_STRING_TXT}' | ConvertTo-SecureString; 
+    $credential = New-Object System.Management.Automation.PSCredential ('${PROFILE_USERNAME}', $securePwd);
+} elseif ((![string]::IsNullOrEmpty('${SECURE_STRING_TXT}')) -and (![string]::IsNullOrEmpty('${SECURE_KEY_ARRAY}'))){
+    [Byte[]] $key = @(${SECURE_KEY_ARRAY}); 
+    $securePwd = '${SECURE_STRING_TXT}' | ConvertTo-SecureString -Key $key;
+    $credential = New-Object System.Management.Automation.PSCredential ('${PROFILE_USERNAME}', $securePwd);
+} else {
+    $password = ConvertTo-SecureString '${PROFILE_PASSWORD}' -AsPlainText -Force; 
+    $credential = New-Object System.Management.Automation.PSCredential ('${PROFILE_USERNAME}', $password);
+}
+if ('${PROFILE_SERVER}' -ne 'localhost'){ 
+    $Drive = Get-WMIObject -Credential $credential -ComputerName ${PROFILE_SERVER} Win32_LogicalDisk -Filter \"DeviceID='C:'\" ;
+}
+$FreeDiskSpace = $Drive | ForEach-Object {[math]::truncate($_.freespace / 1GB)};
+Write-Host "FreeDiskSpace["$FreeDiskSpace"]" ;</t>
+  </si>
+  <si>
+    <t>if ('${PROFILE_SERVER}' -eq 'localhost'){
+    &lt;# Write-Output \"get localhost metric \"; #&gt;
+    $PerfRawData = Get-WmiObject Win32_PerfRawData_PerfOS_System;
+} elseif ((![string]::IsNullOrEmpty('${SECURE_STRING_TXT}')) -and ([string]::IsNullOrEmpty('${SECURE_KEY_ARRAY}'))){
+    &lt;# Write-Output \"  cpu using secure string \"; #&gt;
+    $securePwd = '${SECURE_STRING_TXT}' | ConvertTo-SecureString; 
+    $credential = New-Object System.Management.Automation.PSCredential ('${PROFILE_USERNAME}', $securePwd);
+} elseif ((![string]::IsNullOrEmpty('${SECURE_STRING_TXT}')) -and (![string]::IsNullOrEmpty('${SECURE_KEY_ARRAY}'))){
+    &lt;# Write-Output \"get remote server metric using using secure string with key \"; #&gt;
+    [Byte[]] $key = @(${SECURE_KEY_ARRAY}); 
+    $securePwd = '${SECURE_STRING_TXT}' | ConvertTo-SecureString -Key $key;
+    $credential = New-Object System.Management.Automation.PSCredential ('${PROFILE_USERNAME}', $securePwd);
+} else {
+    &lt;# Write-Output \"get remote server metric using profile username and password \"; #&gt;
+    $password = ConvertTo-SecureString '${PROFILE_PASSWORD}' -AsPlainText -Force; 
+    $credential = New-Object System.Management.Automation.PSCredential ('${PROFILE_USERNAME}', $password);
+}
+if ('${PROFILE_SERVER}' -ne 'localhost'){ 
+    $PerfRawData = Get-WmiObject -Credential $credential -ComputerName ${PROFILE_SERVER} Win32_PerfRawData_PerfOS_System
+}
+$CPUQlen = [math]::round(($PerfRawData | Measure-Object -Property ProcessorQueueLength -Average | Select-Object Average).Average);
+$Processes = [math]::round(($PerfRawData | Measure-Object -Property Processes -Average | Select-Object Average).Average);
+Write-Host " CPUQlen["$CPUQlen"] Processes["$Processes"] " ;</t>
+  </si>
+  <si>
     <t>cpu get loadpercentage</t>
   </si>
   <si>
@@ -560,12 +698,6 @@
     <t>Nix_CPU_UTIL</t>
   </si>
   <si>
-    <t>UNPARSED_CPU_UTIL</t>
-  </si>
-  <si>
-    <t>Memory_convert_Gb</t>
-  </si>
-  <si>
     <t>UNIX_Memory_numperm_percent</t>
   </si>
   <si>
@@ -575,6 +707,24 @@
     <t>UNIX_Memory_pinned_percent</t>
   </si>
   <si>
+    <t>Cpu_Util_PS</t>
+  </si>
+  <si>
+    <t>Memory_FreePhysicalG_PS</t>
+  </si>
+  <si>
+    <t>Memory_FreeVirtualG_PS</t>
+  </si>
+  <si>
+    <t>FreePhysicalDiskSpaceGB_C</t>
+  </si>
+  <si>
+    <t>Cpu_Qlen_PS</t>
+  </si>
+  <si>
+    <t>Processes_PS</t>
+  </si>
+  <si>
     <t>WicnCpu</t>
   </si>
   <si>
@@ -588,6 +738,63 @@
   </si>
   <si>
     <t>SAMPLE_COMMAND_RESPONSE</t>
+  </si>
+  <si>
+    <t>DATAPOINT</t>
+  </si>
+  <si>
+    <t>Cpu_Qlen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import org.apache.commons.lang3.StringUtils;
+import org.apache.commons.lang3.math.NumberUtils;
+String extractedMetric = "-1";
+if (NumberUtils.isParsable(StringUtils.substringBetween(commandResponse, "CPUQlen[", "]"))){
+    extractedMetric = StringUtils.substringBetween(commandResponse, "CPUQlen[", "]");  
+}
+return extractedMetric; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">..CPUQlen[1234].. </t>
+  </si>
+  <si>
+    <t>some text
+ CPUQlen[1234] Processes[367]</t>
+  </si>
+  <si>
+    <t>CPU_UTIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import org.apache.commons.lang3.StringUtils;
+import org.apache.commons.lang3.math.NumberUtils;
+String extractedMetric = "-1";
+if (NumberUtils.isParsable(StringUtils.substringBetween(commandResponse, "CPU[", "]"))){
+    extractedMetric = StringUtils.substringBetween(commandResponse, "CPU[", "]");  
+}
+return extractedMetric; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">..CPU[14].. </t>
+  </si>
+  <si>
+    <t>get remote server metric using using secure string with key
+CPU[46] FreePhysicalMemory[14] FreeVirtualMemory[18] FreeDiskSpace[32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import org.apache.commons.lang3.StringUtils;
+import org.apache.commons.lang3.math.NumberUtils;
+String extractedMetric = "-1";
+if (NumberUtils.isParsable(StringUtils.substringBetween(commandResponse, "FreeDiskSpace[", "]"))){
+    extractedMetric = StringUtils.substringBetween(commandResponse, "FreeDiskSpace[", "]");  
+}
+return extractedMetric; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">..FreeDiskSpace[627].. </t>
+  </si>
+  <si>
+    <t>any debug output (without the square brackets bit)
+FreeDiskSpace[627]</t>
   </si>
   <si>
     <t>MEMORY</t>
@@ -681,6 +888,18 @@
 22510400</t>
   </si>
   <si>
+    <t xml:space="preserve">import org.apache.commons.lang3.StringUtils;
+import org.apache.commons.lang3.math.NumberUtils;
+String extractedMetric = "-1";
+if (NumberUtils.isParsable(StringUtils.substringBetween(commandResponse, "FreePhysicalMemory[", "]"))){
+    extractedMetric = StringUtils.substringBetween(commandResponse, "FreePhysicalMemory[", "]");  
+}
+return extractedMetric; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">..FreePhysicalMemory[14].. </t>
+  </si>
+  <si>
     <t>FreeVirtualG</t>
   </si>
   <si>
@@ -688,22 +907,19 @@
 22510400</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> return Long.valueOf(commandResponse) / 1000000000;</t>
-  </si>
-  <si>
-    <t>imply return the commandResponse divided a by 10^9</t>
-  </si>
-  <si>
-    <t>517179869184</t>
+    <t xml:space="preserve">import org.apache.commons.lang3.StringUtils;
+import org.apache.commons.lang3.math.NumberUtils;
+String extractedMetric = "-1";
+if (NumberUtils.isParsable(StringUtils.substringBetween(commandResponse, "FreeVirtualMemory[", "]"))){
+    extractedMetric = StringUtils.substringBetween(commandResponse, "FreeVirtualMemory[", "]");  
+}
+return extractedMetric; </t>
+  </si>
+  <si>
+    <t>..FreeVirtualMemory[18]..</t>
   </si>
   <si>
     <t>Nix_CPU_Idle</t>
-  </si>
-  <si>
-    <t>CPU_UTIL</t>
   </si>
   <si>
     <t>IDLE</t>
@@ -765,7 +981,19 @@
 return cpuUtil;</t>
   </si>
   <si>
-    <t>DATAPOINT</t>
+    <t>Processes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import org.apache.commons.lang3.StringUtils;
+import org.apache.commons.lang3.math.NumberUtils;
+String extractedMetric = "-1";
+if (NumberUtils.isParsable(StringUtils.substringBetween(commandResponse, "Processes[", "]"))){
+    extractedMetric = StringUtils.substringBetween(commandResponse, "Processes[", "]");  
+}
+return extractedMetric; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">..Processes[367].. </t>
   </si>
   <si>
     <t>return 1</t>
@@ -795,33 +1023,28 @@
     <t>commandResponse.split(",")[0].trim()</t>
   </si>
   <si>
-    <t xml:space="preserve"> return commandResponse</t>
-  </si>
-  <si>
-    <t>simply return the commandResponse</t>
-  </si>
-  <si>
-    <t>56.8</t>
-  </si>
-  <si>
-    <t>java.util.regex.Matcher m = java.util.regex.Pattern.compile("-?[0-9]+").matcher(commandResponse);
-Integer sum = 0; 
+    <t>java.util.regex.Matcher m = java.util.regex.Pattern.compile("(\\d+(?:\\.\\d+)?)").matcher(commandResponse);
+Double sum = 0; 
 int count = 0; 
 while (m.find()){ 
-    sum += Integer.parseInt(m.group()); 
+    sum += Double.parseDouble(m.group()); 
     count++;
 }; 
 if (count==0) 
     return 0 ; 
 else 
-    return sum/count;</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>LoadPercentage
-21</t>
+    return Math.round(sum/count);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg a list of (dec) nums in text </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoadPercentage.with a dot
+1.99
+3
+2.99
+3
+</t>
   </si>
 </sst>
 </file>
@@ -884,14 +1107,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" style="2" width="48.17578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.41015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.96875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.78515625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.79296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.62109375" customWidth="true" bestFit="true"/>
@@ -900,7 +1123,7 @@
     <col min="8" max="8" width="19.5390625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="23.23828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="103.01953125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.5625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="190.18359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1040,12 +1263,12 @@
         <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1080,7 +1303,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1115,7 +1338,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1150,10 +1373,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -1170,12 +1393,8 @@
       <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
+      <c r="H8"/>
+      <c r="I8"/>
       <c r="J8" t="s">
         <v>14</v>
       </c>
@@ -1185,10 +1404,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1205,14 +1424,10 @@
       <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
+      <c r="H9"/>
+      <c r="I9"/>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
         <v>17</v>
@@ -1220,10 +1435,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -1240,25 +1455,21 @@
       <c r="G10" t="s">
         <v>14</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
+      <c r="H10"/>
+      <c r="I10"/>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -1268,18 +1479,18 @@
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -1289,15 +1500,15 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1332,7 +1543,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1341,7 +1552,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -1359,7 +1570,7 @@
         <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K14" t="s">
         <v>17</v>
@@ -1367,7 +1578,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1376,7 +1587,7 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -1394,7 +1605,7 @@
         <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="K15" t="s">
         <v>17</v>
@@ -1402,16 +1613,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -1422,31 +1633,27 @@
       <c r="G16" t="s">
         <v>14</v>
       </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
+      <c r="H16"/>
+      <c r="I16"/>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -1457,31 +1664,27 @@
       <c r="G17" t="s">
         <v>14</v>
       </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
+      <c r="H17"/>
+      <c r="I17"/>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -1492,14 +1695,10 @@
       <c r="G18" t="s">
         <v>14</v>
       </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
+      <c r="H18"/>
+      <c r="I18"/>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
@@ -1507,34 +1706,30 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
       </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
-        <v>16</v>
-      </c>
+      <c r="H19"/>
+      <c r="I19"/>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s">
         <v>17</v>
@@ -1542,22 +1737,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -1577,37 +1772,196 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J21" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="K21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1971,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1632,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
@@ -1640,7 +1994,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -1648,7 +2002,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -1656,239 +2010,335 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1898,458 +2348,538 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.41015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.96875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="246.8125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="16.45703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="109.81640625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="62.10546875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="70.265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s" s="1">
         <v>9</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2359,7 +2889,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2371,210 +2901,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2584,7 +3146,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2592,7 +3154,7 @@
   <cols>
     <col min="1" max="1" width="33.62109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="18.55078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.39453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="25.96484375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="140.3984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="139.76953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="92.921875" customWidth="true" bestFit="true"/>
@@ -2600,302 +3162,382 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s" s="1">
         <v>9</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>127</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" t="s">
         <v>168</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
